--- a/src/main/java/com/indiamart/qa/testdata/Indiamarttestdata.xlsx
+++ b/src/main/java/com/indiamart/qa/testdata/Indiamarttestdata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A5EA344A-DD7B-49C3-B375-3C75626B50F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{892D3AF1-BB42-4701-B3E2-1508CA43D851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{0786DE3D-3A42-42C6-AE90-2E194EFDE61A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{0786DE3D-3A42-42C6-AE90-2E194EFDE61A}"/>
   </bookViews>
   <sheets>
     <sheet name="Signin" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="InvalidSearchKeyword" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Y16"/>
+  <oleSize ref="A1:W23"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7827EB8-A1B9-4AC1-92D0-70C44C866000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +482,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +519,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D011FA-54B2-4766-97A5-98C10D6A7C27}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
